--- a/public/excel/Movie upload.xlsx
+++ b/public/excel/Movie upload.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Torrent Link</t>
+  </si>
+  <si>
+    <t>Movie Link</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,10 +396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,12 +408,14 @@
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -420,61 +428,67 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="H2" t="s">
+    <row r="2" spans="1:12">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
     </row>
